--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Spon1-Lrp8.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Spon1-Lrp8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>10.7773960801211</v>
+        <v>0.8011370000000001</v>
       </c>
       <c r="H2">
-        <v>10.7773960801211</v>
+        <v>2.403411</v>
       </c>
       <c r="I2">
-        <v>0.5709480009542438</v>
+        <v>0.03767782325830066</v>
       </c>
       <c r="J2">
-        <v>0.5709480009542438</v>
+        <v>0.03767782325830066</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.04110541018131</v>
+        <v>0.5987749999999999</v>
       </c>
       <c r="N2">
-        <v>1.04110541018131</v>
+        <v>1.796325</v>
       </c>
       <c r="O2">
-        <v>0.1921164921339041</v>
+        <v>0.07475820864961619</v>
       </c>
       <c r="P2">
-        <v>0.1921164921339041</v>
+        <v>0.07475820864961619</v>
       </c>
       <c r="Q2">
-        <v>11.22040536668092</v>
+        <v>0.479700807175</v>
       </c>
       <c r="R2">
-        <v>11.22040536668092</v>
+        <v>4.317307264575001</v>
       </c>
       <c r="S2">
-        <v>0.1096885271341943</v>
+        <v>0.002816726572607402</v>
       </c>
       <c r="T2">
-        <v>0.1096885271341943</v>
+        <v>0.002816726572607403</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>10.7773960801211</v>
+        <v>0.8011370000000001</v>
       </c>
       <c r="H3">
-        <v>10.7773960801211</v>
+        <v>2.403411</v>
       </c>
       <c r="I3">
-        <v>0.5709480009542438</v>
+        <v>0.03767782325830066</v>
       </c>
       <c r="J3">
-        <v>0.5709480009542438</v>
+        <v>0.03767782325830066</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.26868193787949</v>
+        <v>1.09856</v>
       </c>
       <c r="N3">
-        <v>2.26868193787949</v>
+        <v>3.29568</v>
       </c>
       <c r="O3">
-        <v>0.4186427343577547</v>
+        <v>0.137157325696835</v>
       </c>
       <c r="P3">
-        <v>0.4186427343577547</v>
+        <v>0.137157325696835</v>
       </c>
       <c r="Q3">
-        <v>24.45048382434396</v>
+        <v>0.8800970627200001</v>
       </c>
       <c r="R3">
-        <v>24.45048382434396</v>
+        <v>7.920873564480001</v>
       </c>
       <c r="S3">
-        <v>0.2390232322955786</v>
+        <v>0.005167789476186528</v>
       </c>
       <c r="T3">
-        <v>0.2390232322955786</v>
+        <v>0.005167789476186528</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>10.7773960801211</v>
+        <v>0.8011370000000001</v>
       </c>
       <c r="H4">
-        <v>10.7773960801211</v>
+        <v>2.403411</v>
       </c>
       <c r="I4">
-        <v>0.5709480009542438</v>
+        <v>0.03767782325830066</v>
       </c>
       <c r="J4">
-        <v>0.5709480009542438</v>
+        <v>0.03767782325830066</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.10934871161525</v>
+        <v>2.281579</v>
       </c>
       <c r="N4">
-        <v>2.10934871161525</v>
+        <v>6.844737</v>
       </c>
       <c r="O4">
-        <v>0.3892407735083412</v>
+        <v>0.2848595197404412</v>
       </c>
       <c r="P4">
-        <v>0.3892407735083412</v>
+        <v>0.2848595197404412</v>
       </c>
       <c r="Q4">
-        <v>22.73328653617069</v>
+        <v>1.827857355323</v>
       </c>
       <c r="R4">
-        <v>22.73328653617069</v>
+        <v>16.450716197907</v>
       </c>
       <c r="S4">
-        <v>0.222236241524471</v>
+        <v>0.01073288663822475</v>
       </c>
       <c r="T4">
-        <v>0.222236241524471</v>
+        <v>0.01073288663822475</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.80805186819234</v>
+        <v>0.8011370000000001</v>
       </c>
       <c r="H5">
-        <v>1.80805186819234</v>
+        <v>2.403411</v>
       </c>
       <c r="I5">
-        <v>0.09578413858892</v>
+        <v>0.03767782325830066</v>
       </c>
       <c r="J5">
-        <v>0.09578413858892</v>
+        <v>0.03767782325830066</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.04110541018131</v>
+        <v>3.381206666666667</v>
       </c>
       <c r="N5">
-        <v>1.04110541018131</v>
+        <v>10.14362</v>
       </c>
       <c r="O5">
-        <v>0.1921164921339041</v>
+        <v>0.4221501456709782</v>
       </c>
       <c r="P5">
-        <v>0.1921164921339041</v>
+        <v>0.4221501456709781</v>
       </c>
       <c r="Q5">
-        <v>1.88237258186347</v>
+        <v>2.708809765313334</v>
       </c>
       <c r="R5">
-        <v>1.88237258186347</v>
+        <v>24.37928788782</v>
       </c>
       <c r="S5">
-        <v>0.01840171270777103</v>
+        <v>0.01590569857705699</v>
       </c>
       <c r="T5">
-        <v>0.01840171270777103</v>
+        <v>0.015905698577057</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.80805186819234</v>
+        <v>0.8011370000000001</v>
       </c>
       <c r="H6">
-        <v>1.80805186819234</v>
+        <v>2.403411</v>
       </c>
       <c r="I6">
-        <v>0.09578413858892</v>
+        <v>0.03767782325830066</v>
       </c>
       <c r="J6">
-        <v>0.09578413858892</v>
+        <v>0.03767782325830066</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.26868193787949</v>
+        <v>0.6493676666666667</v>
       </c>
       <c r="N6">
-        <v>2.26868193787949</v>
+        <v>1.948103</v>
       </c>
       <c r="O6">
-        <v>0.4186427343577547</v>
+        <v>0.08107480024212949</v>
       </c>
       <c r="P6">
-        <v>0.4186427343577547</v>
+        <v>0.0810748002421295</v>
       </c>
       <c r="Q6">
-        <v>4.101894616117231</v>
+        <v>0.5202324643703334</v>
       </c>
       <c r="R6">
-        <v>4.101894616117231</v>
+        <v>4.682092179333001</v>
       </c>
       <c r="S6">
-        <v>0.04009933368696759</v>
+        <v>0.003054721994224986</v>
       </c>
       <c r="T6">
-        <v>0.04009933368696759</v>
+        <v>0.003054721994224987</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,433 +835,1239 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.80805186819234</v>
+        <v>11.027086</v>
       </c>
       <c r="H7">
-        <v>1.80805186819234</v>
+        <v>33.08125800000001</v>
       </c>
       <c r="I7">
-        <v>0.09578413858892</v>
+        <v>0.5186086741245025</v>
       </c>
       <c r="J7">
-        <v>0.09578413858892</v>
+        <v>0.5186086741245026</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>2.10934871161525</v>
+        <v>0.5987749999999999</v>
       </c>
       <c r="N7">
-        <v>2.10934871161525</v>
+        <v>1.796325</v>
       </c>
       <c r="O7">
-        <v>0.3892407735083412</v>
+        <v>0.07475820864961619</v>
       </c>
       <c r="P7">
-        <v>0.3892407735083412</v>
+        <v>0.07475820864961619</v>
       </c>
       <c r="Q7">
-        <v>3.813811878705058</v>
+        <v>6.602743419650001</v>
       </c>
       <c r="R7">
-        <v>3.813811878705058</v>
+        <v>59.42469077685001</v>
       </c>
       <c r="S7">
-        <v>0.03728309219418138</v>
+        <v>0.03877025546770037</v>
       </c>
       <c r="T7">
-        <v>0.03728309219418138</v>
+        <v>0.03877025546770037</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.00393162107095</v>
+        <v>11.027086</v>
       </c>
       <c r="H8">
-        <v>5.00393162107095</v>
+        <v>33.08125800000001</v>
       </c>
       <c r="I8">
-        <v>0.2650904480751055</v>
+        <v>0.5186086741245025</v>
       </c>
       <c r="J8">
-        <v>0.2650904480751055</v>
+        <v>0.5186086741245026</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.04110541018131</v>
+        <v>1.09856</v>
       </c>
       <c r="N8">
-        <v>1.04110541018131</v>
+        <v>3.29568</v>
       </c>
       <c r="O8">
-        <v>0.1921164921339041</v>
+        <v>0.137157325696835</v>
       </c>
       <c r="P8">
-        <v>0.1921164921339041</v>
+        <v>0.137157325696835</v>
       </c>
       <c r="Q8">
-        <v>5.209620282874298</v>
+        <v>12.11391559616</v>
       </c>
       <c r="R8">
-        <v>5.209620282874298</v>
+        <v>109.02524036544</v>
       </c>
       <c r="S8">
-        <v>0.05092824698239411</v>
+        <v>0.07113097882609815</v>
       </c>
       <c r="T8">
-        <v>0.05092824698239411</v>
+        <v>0.07113097882609816</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.00393162107095</v>
+        <v>11.027086</v>
       </c>
       <c r="H9">
-        <v>5.00393162107095</v>
+        <v>33.08125800000001</v>
       </c>
       <c r="I9">
-        <v>0.2650904480751055</v>
+        <v>0.5186086741245025</v>
       </c>
       <c r="J9">
-        <v>0.2650904480751055</v>
+        <v>0.5186086741245026</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.26868193787949</v>
+        <v>2.281579</v>
       </c>
       <c r="N9">
-        <v>2.26868193787949</v>
+        <v>6.844737</v>
       </c>
       <c r="O9">
-        <v>0.4186427343577547</v>
+        <v>0.2848595197404412</v>
       </c>
       <c r="P9">
-        <v>0.4186427343577547</v>
+        <v>0.2848595197404412</v>
       </c>
       <c r="Q9">
-        <v>11.3523292871077</v>
+        <v>25.15916784879401</v>
       </c>
       <c r="R9">
-        <v>11.3523292871077</v>
+        <v>226.432510639146</v>
       </c>
       <c r="S9">
-        <v>0.1109781900342845</v>
+        <v>0.1477306178443328</v>
       </c>
       <c r="T9">
-        <v>0.1109781900342845</v>
+        <v>0.1477306178443328</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.00393162107095</v>
+        <v>11.027086</v>
       </c>
       <c r="H10">
-        <v>5.00393162107095</v>
+        <v>33.08125800000001</v>
       </c>
       <c r="I10">
-        <v>0.2650904480751055</v>
+        <v>0.5186086741245025</v>
       </c>
       <c r="J10">
-        <v>0.2650904480751055</v>
+        <v>0.5186086741245026</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.10934871161525</v>
+        <v>3.381206666666667</v>
       </c>
       <c r="N10">
-        <v>2.10934871161525</v>
+        <v>10.14362</v>
       </c>
       <c r="O10">
-        <v>0.3892407735083412</v>
+        <v>0.4221501456709782</v>
       </c>
       <c r="P10">
-        <v>0.3892407735083412</v>
+        <v>0.4221501456709781</v>
       </c>
       <c r="Q10">
-        <v>10.55503671791682</v>
+        <v>37.28485669710668</v>
       </c>
       <c r="R10">
-        <v>10.55503671791682</v>
+        <v>335.5637102739601</v>
       </c>
       <c r="S10">
-        <v>0.1031840110584268</v>
+        <v>0.2189307273278916</v>
       </c>
       <c r="T10">
-        <v>0.1031840110584268</v>
+        <v>0.2189307273278916</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.28693852282101</v>
+        <v>11.027086</v>
       </c>
       <c r="H11">
-        <v>1.28693852282101</v>
+        <v>33.08125800000001</v>
       </c>
       <c r="I11">
-        <v>0.0681774123817306</v>
+        <v>0.5186086741245025</v>
       </c>
       <c r="J11">
-        <v>0.0681774123817306</v>
+        <v>0.5186086741245026</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>1.04110541018131</v>
+        <v>0.6493676666666667</v>
       </c>
       <c r="N11">
-        <v>1.04110541018131</v>
+        <v>1.948103</v>
       </c>
       <c r="O11">
-        <v>0.1921164921339041</v>
+        <v>0.08107480024212949</v>
       </c>
       <c r="P11">
-        <v>0.1921164921339041</v>
+        <v>0.0810748002421295</v>
       </c>
       <c r="Q11">
-        <v>1.339838658679697</v>
+        <v>7.160633105952669</v>
       </c>
       <c r="R11">
-        <v>1.339838658679697</v>
+        <v>64.44569795357401</v>
       </c>
       <c r="S11">
-        <v>0.01309800530954468</v>
+        <v>0.04204609465847967</v>
       </c>
       <c r="T11">
-        <v>0.01309800530954468</v>
+        <v>0.04204609465847969</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.28693852282101</v>
+        <v>2.830399</v>
       </c>
       <c r="H12">
-        <v>1.28693852282101</v>
+        <v>8.491197</v>
       </c>
       <c r="I12">
-        <v>0.0681774123817306</v>
+        <v>0.1331149020360699</v>
       </c>
       <c r="J12">
-        <v>0.0681774123817306</v>
+        <v>0.1331149020360699</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>2.26868193787949</v>
+        <v>0.5987749999999999</v>
       </c>
       <c r="N12">
-        <v>2.26868193787949</v>
+        <v>1.796325</v>
       </c>
       <c r="O12">
-        <v>0.4186427343577547</v>
+        <v>0.07475820864961619</v>
       </c>
       <c r="P12">
-        <v>0.4186427343577547</v>
+        <v>0.07475820864961619</v>
       </c>
       <c r="Q12">
-        <v>2.919654181885337</v>
+        <v>1.694772161225</v>
       </c>
       <c r="R12">
-        <v>2.919654181885337</v>
+        <v>15.252949451025</v>
       </c>
       <c r="S12">
-        <v>0.02854197834092394</v>
+        <v>0.00995143162078573</v>
       </c>
       <c r="T12">
-        <v>0.02854197834092394</v>
+        <v>0.009951431620785732</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.830399</v>
+      </c>
+      <c r="H13">
+        <v>8.491197</v>
+      </c>
+      <c r="I13">
+        <v>0.1331149020360699</v>
+      </c>
+      <c r="J13">
+        <v>0.1331149020360699</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.09856</v>
+      </c>
+      <c r="N13">
+        <v>3.29568</v>
+      </c>
+      <c r="O13">
+        <v>0.137157325696835</v>
+      </c>
+      <c r="P13">
+        <v>0.137157325696835</v>
+      </c>
+      <c r="Q13">
+        <v>3.10936312544</v>
+      </c>
+      <c r="R13">
+        <v>27.98426812896</v>
+      </c>
+      <c r="S13">
+        <v>0.01825768397366352</v>
+      </c>
+      <c r="T13">
+        <v>0.01825768397366352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.830399</v>
+      </c>
+      <c r="H14">
+        <v>8.491197</v>
+      </c>
+      <c r="I14">
+        <v>0.1331149020360699</v>
+      </c>
+      <c r="J14">
+        <v>0.1331149020360699</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.281579</v>
+      </c>
+      <c r="N14">
+        <v>6.844737</v>
+      </c>
+      <c r="O14">
+        <v>0.2848595197404412</v>
+      </c>
+      <c r="P14">
+        <v>0.2848595197404412</v>
+      </c>
+      <c r="Q14">
+        <v>6.457778920021</v>
+      </c>
+      <c r="R14">
+        <v>58.120010280189</v>
+      </c>
+      <c r="S14">
+        <v>0.03791904706429074</v>
+      </c>
+      <c r="T14">
+        <v>0.03791904706429074</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.830399</v>
+      </c>
+      <c r="H15">
+        <v>8.491197</v>
+      </c>
+      <c r="I15">
+        <v>0.1331149020360699</v>
+      </c>
+      <c r="J15">
+        <v>0.1331149020360699</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.381206666666667</v>
+      </c>
+      <c r="N15">
+        <v>10.14362</v>
+      </c>
+      <c r="O15">
+        <v>0.4221501456709782</v>
+      </c>
+      <c r="P15">
+        <v>0.4221501456709781</v>
+      </c>
+      <c r="Q15">
+        <v>9.570163968126668</v>
+      </c>
+      <c r="R15">
+        <v>86.13147571314001</v>
+      </c>
+      <c r="S15">
+        <v>0.05619447528550489</v>
+      </c>
+      <c r="T15">
+        <v>0.05619447528550489</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.830399</v>
+      </c>
+      <c r="H16">
+        <v>8.491197</v>
+      </c>
+      <c r="I16">
+        <v>0.1331149020360699</v>
+      </c>
+      <c r="J16">
+        <v>0.1331149020360699</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.6493676666666667</v>
+      </c>
+      <c r="N16">
+        <v>1.948103</v>
+      </c>
+      <c r="O16">
+        <v>0.08107480024212949</v>
+      </c>
+      <c r="P16">
+        <v>0.0810748002421295</v>
+      </c>
+      <c r="Q16">
+        <v>1.837969594365667</v>
+      </c>
+      <c r="R16">
+        <v>16.541726349291</v>
+      </c>
+      <c r="S16">
+        <v>0.010792264091825</v>
+      </c>
+      <c r="T16">
+        <v>0.01079226409182501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>5.149227666666667</v>
+      </c>
+      <c r="H17">
+        <v>15.447683</v>
+      </c>
+      <c r="I17">
+        <v>0.2421704277063955</v>
+      </c>
+      <c r="J17">
+        <v>0.2421704277063955</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.5987749999999999</v>
+      </c>
+      <c r="N17">
+        <v>1.796325</v>
+      </c>
+      <c r="O17">
+        <v>0.07475820864961619</v>
+      </c>
+      <c r="P17">
+        <v>0.07475820864961619</v>
+      </c>
+      <c r="Q17">
+        <v>3.083228796108333</v>
+      </c>
+      <c r="R17">
+        <v>27.749059164975</v>
+      </c>
+      <c r="S17">
+        <v>0.0181042273632415</v>
+      </c>
+      <c r="T17">
+        <v>0.01810422736324151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>5.149227666666667</v>
+      </c>
+      <c r="H18">
+        <v>15.447683</v>
+      </c>
+      <c r="I18">
+        <v>0.2421704277063955</v>
+      </c>
+      <c r="J18">
+        <v>0.2421704277063955</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.09856</v>
+      </c>
+      <c r="N18">
+        <v>3.29568</v>
+      </c>
+      <c r="O18">
+        <v>0.137157325696835</v>
+      </c>
+      <c r="P18">
+        <v>0.137157325696835</v>
+      </c>
+      <c r="Q18">
+        <v>5.656735545493333</v>
+      </c>
+      <c r="R18">
+        <v>50.91061990944</v>
+      </c>
+      <c r="S18">
+        <v>0.03321544822706791</v>
+      </c>
+      <c r="T18">
+        <v>0.03321544822706792</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.28693852282101</v>
-      </c>
-      <c r="H13">
-        <v>1.28693852282101</v>
-      </c>
-      <c r="I13">
-        <v>0.0681774123817306</v>
-      </c>
-      <c r="J13">
-        <v>0.0681774123817306</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>2.10934871161525</v>
-      </c>
-      <c r="N13">
-        <v>2.10934871161525</v>
-      </c>
-      <c r="O13">
-        <v>0.3892407735083412</v>
-      </c>
-      <c r="P13">
-        <v>0.3892407735083412</v>
-      </c>
-      <c r="Q13">
-        <v>2.714602115040531</v>
-      </c>
-      <c r="R13">
-        <v>2.714602115040531</v>
-      </c>
-      <c r="S13">
-        <v>0.02653742873126198</v>
-      </c>
-      <c r="T13">
-        <v>0.02653742873126198</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>5.149227666666667</v>
+      </c>
+      <c r="H19">
+        <v>15.447683</v>
+      </c>
+      <c r="I19">
+        <v>0.2421704277063955</v>
+      </c>
+      <c r="J19">
+        <v>0.2421704277063955</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.281579</v>
+      </c>
+      <c r="N19">
+        <v>6.844737</v>
+      </c>
+      <c r="O19">
+        <v>0.2848595197404412</v>
+      </c>
+      <c r="P19">
+        <v>0.2848595197404412</v>
+      </c>
+      <c r="Q19">
+        <v>11.74836971048567</v>
+      </c>
+      <c r="R19">
+        <v>105.735327394371</v>
+      </c>
+      <c r="S19">
+        <v>0.06898455173178104</v>
+      </c>
+      <c r="T19">
+        <v>0.06898455173178106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>5.149227666666667</v>
+      </c>
+      <c r="H20">
+        <v>15.447683</v>
+      </c>
+      <c r="I20">
+        <v>0.2421704277063955</v>
+      </c>
+      <c r="J20">
+        <v>0.2421704277063955</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>3.381206666666667</v>
+      </c>
+      <c r="N20">
+        <v>10.14362</v>
+      </c>
+      <c r="O20">
+        <v>0.4221501456709782</v>
+      </c>
+      <c r="P20">
+        <v>0.4221501456709781</v>
+      </c>
+      <c r="Q20">
+        <v>17.41060291471778</v>
+      </c>
+      <c r="R20">
+        <v>156.69542623246</v>
+      </c>
+      <c r="S20">
+        <v>0.1022322813334579</v>
+      </c>
+      <c r="T20">
+        <v>0.1022322813334579</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>5.149227666666667</v>
+      </c>
+      <c r="H21">
+        <v>15.447683</v>
+      </c>
+      <c r="I21">
+        <v>0.2421704277063955</v>
+      </c>
+      <c r="J21">
+        <v>0.2421704277063955</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.6493676666666667</v>
+      </c>
+      <c r="N21">
+        <v>1.948103</v>
+      </c>
+      <c r="O21">
+        <v>0.08107480024212949</v>
+      </c>
+      <c r="P21">
+        <v>0.0810748002421295</v>
+      </c>
+      <c r="Q21">
+        <v>3.343741955038778</v>
+      </c>
+      <c r="R21">
+        <v>30.093677595349</v>
+      </c>
+      <c r="S21">
+        <v>0.01963391905084707</v>
+      </c>
+      <c r="T21">
+        <v>0.01963391905084708</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.454976333333333</v>
+      </c>
+      <c r="H22">
+        <v>4.364929</v>
+      </c>
+      <c r="I22">
+        <v>0.06842817287473138</v>
+      </c>
+      <c r="J22">
+        <v>0.06842817287473139</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.5987749999999999</v>
+      </c>
+      <c r="N22">
+        <v>1.796325</v>
+      </c>
+      <c r="O22">
+        <v>0.07475820864961619</v>
+      </c>
+      <c r="P22">
+        <v>0.07475820864961619</v>
+      </c>
+      <c r="Q22">
+        <v>0.8712034539916667</v>
+      </c>
+      <c r="R22">
+        <v>7.840831085925</v>
+      </c>
+      <c r="S22">
+        <v>0.005115567625281175</v>
+      </c>
+      <c r="T22">
+        <v>0.005115567625281176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.454976333333333</v>
+      </c>
+      <c r="H23">
+        <v>4.364929</v>
+      </c>
+      <c r="I23">
+        <v>0.06842817287473138</v>
+      </c>
+      <c r="J23">
+        <v>0.06842817287473139</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.09856</v>
+      </c>
+      <c r="N23">
+        <v>3.29568</v>
+      </c>
+      <c r="O23">
+        <v>0.137157325696835</v>
+      </c>
+      <c r="P23">
+        <v>0.137157325696835</v>
+      </c>
+      <c r="Q23">
+        <v>1.598378800746667</v>
+      </c>
+      <c r="R23">
+        <v>14.38540920672</v>
+      </c>
+      <c r="S23">
+        <v>0.00938542519381886</v>
+      </c>
+      <c r="T23">
+        <v>0.009385425193818863</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.454976333333333</v>
+      </c>
+      <c r="H24">
+        <v>4.364929</v>
+      </c>
+      <c r="I24">
+        <v>0.06842817287473138</v>
+      </c>
+      <c r="J24">
+        <v>0.06842817287473139</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.281579</v>
+      </c>
+      <c r="N24">
+        <v>6.844737</v>
+      </c>
+      <c r="O24">
+        <v>0.2848595197404412</v>
+      </c>
+      <c r="P24">
+        <v>0.2848595197404412</v>
+      </c>
+      <c r="Q24">
+        <v>3.319643447630334</v>
+      </c>
+      <c r="R24">
+        <v>29.876791028673</v>
+      </c>
+      <c r="S24">
+        <v>0.01949241646181187</v>
+      </c>
+      <c r="T24">
+        <v>0.01949241646181187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.454976333333333</v>
+      </c>
+      <c r="H25">
+        <v>4.364929</v>
+      </c>
+      <c r="I25">
+        <v>0.06842817287473138</v>
+      </c>
+      <c r="J25">
+        <v>0.06842817287473139</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3.381206666666667</v>
+      </c>
+      <c r="N25">
+        <v>10.14362</v>
+      </c>
+      <c r="O25">
+        <v>0.4221501456709782</v>
+      </c>
+      <c r="P25">
+        <v>0.4221501456709781</v>
+      </c>
+      <c r="Q25">
+        <v>4.91957567810889</v>
+      </c>
+      <c r="R25">
+        <v>44.27618110298</v>
+      </c>
+      <c r="S25">
+        <v>0.02888696314706673</v>
+      </c>
+      <c r="T25">
+        <v>0.02888696314706673</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.454976333333333</v>
+      </c>
+      <c r="H26">
+        <v>4.364929</v>
+      </c>
+      <c r="I26">
+        <v>0.06842817287473138</v>
+      </c>
+      <c r="J26">
+        <v>0.06842817287473139</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.6493676666666667</v>
+      </c>
+      <c r="N26">
+        <v>1.948103</v>
+      </c>
+      <c r="O26">
+        <v>0.08107480024212949</v>
+      </c>
+      <c r="P26">
+        <v>0.0810748002421295</v>
+      </c>
+      <c r="Q26">
+        <v>0.944814586631889</v>
+      </c>
+      <c r="R26">
+        <v>8.503331279687</v>
+      </c>
+      <c r="S26">
+        <v>0.00554780044675275</v>
+      </c>
+      <c r="T26">
+        <v>0.005547800446752752</v>
       </c>
     </row>
   </sheetData>
